--- a/doc/backend/api/TRN-MiniBlog_API-Specification_UayLe.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_UayLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24760" windowHeight="15360" tabRatio="957" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25040" windowHeight="15600" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="507">
   <si>
     <t>Description</t>
   </si>
@@ -1631,6 +1631,12 @@
   <si>
     <t>Get all comments by  user id</t>
   </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>Page number is invalid number</t>
+  </si>
 </sst>
 </file>
 
@@ -2555,7 +2561,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3068,44 +3074,54 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3137,16 +3153,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3174,21 +3180,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3201,37 +3192,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3244,6 +3250,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3264,6 +3276,30 @@
     <xf numFmtId="49" fontId="17" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,12 +3309,6 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3286,9 +3316,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3303,12 +3330,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3318,26 +3339,14 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="448">
@@ -15983,301 +15992,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="42" customFormat="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="251" t="s">
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="252"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="233" t="s">
+      <c r="L1" s="222"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="254" t="s">
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="255"/>
-      <c r="AD1" s="256"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="229"/>
     </row>
     <row r="2" spans="1:30" s="42" customFormat="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="228" t="s">
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="229"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="248" t="s">
+      <c r="L2" s="234"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="245" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="250"/>
-      <c r="V2" s="225" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="226"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="225" t="s">
+      <c r="W2" s="231"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="227"/>
-      <c r="AB2" s="225" t="s">
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="232"/>
+      <c r="AB2" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="226"/>
-      <c r="AD2" s="227"/>
+      <c r="AC2" s="231"/>
+      <c r="AD2" s="232"/>
     </row>
     <row r="3" spans="1:30" s="42" customFormat="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="231" t="s">
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="228" t="s">
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="229"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="233" t="s">
+      <c r="L3" s="234"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="235"/>
-      <c r="V3" s="236" t="s">
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="238" t="s">
         <v>209</v>
       </c>
-      <c r="W3" s="237"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="239">
+      <c r="W3" s="239"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="241">
         <v>42027</v>
       </c>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="242"/>
+      <c r="AD3" s="243"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="260" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223" t="s">
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223" t="s">
+      <c r="G8" s="260"/>
+      <c r="H8" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223" t="s">
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="223" t="s">
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="260"/>
+      <c r="U8" s="260"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="260"/>
+      <c r="X8" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="223"/>
+      <c r="Y8" s="260"/>
+      <c r="Z8" s="260"/>
+      <c r="AA8" s="260"/>
+      <c r="AB8" s="260"/>
+      <c r="AC8" s="260"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="224">
+      <c r="B9" s="248">
         <v>42027</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="215" t="s">
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="216"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="222"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="255"/>
+      <c r="M9" s="255"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="255"/>
+      <c r="P9" s="255"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="255"/>
+      <c r="T9" s="255"/>
+      <c r="U9" s="255"/>
+      <c r="V9" s="255"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="258"/>
+      <c r="Z9" s="258"/>
+      <c r="AA9" s="258"/>
+      <c r="AB9" s="258"/>
+      <c r="AC9" s="259"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="218"/>
-      <c r="T10" s="218"/>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="219"/>
-      <c r="X10" s="220"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="221"/>
-      <c r="AC10" s="222"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="255"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="255"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="257"/>
+      <c r="Y10" s="258"/>
+      <c r="Z10" s="258"/>
+      <c r="AA10" s="258"/>
+      <c r="AB10" s="258"/>
+      <c r="AC10" s="259"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="218"/>
-      <c r="U11" s="218"/>
-      <c r="V11" s="218"/>
-      <c r="W11" s="219"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="221"/>
-      <c r="AC11" s="222"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="255"/>
+      <c r="M11" s="255"/>
+      <c r="N11" s="255"/>
+      <c r="O11" s="255"/>
+      <c r="P11" s="255"/>
+      <c r="Q11" s="255"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="255"/>
+      <c r="T11" s="255"/>
+      <c r="U11" s="255"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="256"/>
+      <c r="X11" s="257"/>
+      <c r="Y11" s="258"/>
+      <c r="Z11" s="258"/>
+      <c r="AA11" s="258"/>
+      <c r="AB11" s="258"/>
+      <c r="AC11" s="259"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
-      <c r="K12" s="217"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="220"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="221"/>
-      <c r="AC12" s="222"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="255"/>
+      <c r="N12" s="255"/>
+      <c r="O12" s="255"/>
+      <c r="P12" s="255"/>
+      <c r="Q12" s="255"/>
+      <c r="R12" s="255"/>
+      <c r="S12" s="255"/>
+      <c r="T12" s="255"/>
+      <c r="U12" s="255"/>
+      <c r="V12" s="255"/>
+      <c r="W12" s="256"/>
+      <c r="X12" s="257"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="258"/>
+      <c r="AA12" s="258"/>
+      <c r="AB12" s="258"/>
+      <c r="AC12" s="259"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -16307,11 +16316,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -16326,31 +16355,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16450,15 +16459,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -16471,15 +16480,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -16513,15 +16522,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -16555,15 +16564,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -16576,15 +16585,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -16630,19 +16639,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -16671,11 +16680,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -16895,11 +16904,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="79"/>
       <c r="F26" s="80"/>
       <c r="G26" s="79"/>
@@ -16914,12 +16923,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="286"/>
       <c r="F27" s="133" t="s">
         <v>124</v>
       </c>
@@ -17038,10 +17047,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="84"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>190</v>
       </c>
@@ -17098,8 +17107,8 @@
       <c r="A33" s="60"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119"/>
       <c r="G33" s="120"/>
       <c r="H33" s="74"/>
@@ -17370,11 +17379,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="284"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -17391,12 +17400,12 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="286"/>
       <c r="F50" s="133" t="s">
         <v>124</v>
       </c>
@@ -17488,10 +17497,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="72" t="s">
         <v>140</v>
       </c>
@@ -17521,10 +17530,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="119" t="s">
         <v>205</v>
       </c>
@@ -17585,8 +17594,8 @@
       <c r="A56" s="60"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="72"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -18033,6 +18042,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D56:E56"/>
@@ -18042,13 +18058,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18148,15 +18157,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -18169,15 +18178,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -18211,15 +18220,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -18253,15 +18262,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -18274,15 +18283,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -18328,19 +18337,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -18369,11 +18378,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -18593,11 +18602,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="79"/>
       <c r="F26" s="80"/>
       <c r="G26" s="79"/>
@@ -18612,12 +18621,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="286"/>
       <c r="F27" s="133" t="s">
         <v>124</v>
       </c>
@@ -18736,10 +18745,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="84"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>190</v>
       </c>
@@ -18796,8 +18805,8 @@
       <c r="A33" s="60"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119"/>
       <c r="G33" s="120"/>
       <c r="H33" s="74"/>
@@ -19068,11 +19077,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="284"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -19089,12 +19098,12 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="286"/>
       <c r="F50" s="133" t="s">
         <v>124</v>
       </c>
@@ -19186,10 +19195,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="72" t="s">
         <v>140</v>
       </c>
@@ -19219,10 +19228,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="119" t="s">
         <v>205</v>
       </c>
@@ -19283,8 +19292,8 @@
       <c r="A56" s="60"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="72"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -19731,6 +19740,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D56:E56"/>
@@ -19740,13 +19756,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19846,15 +19855,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -19867,15 +19876,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -19909,15 +19918,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -19951,15 +19960,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -19972,15 +19981,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -20026,19 +20035,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -20067,11 +20076,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -20250,11 +20259,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -20269,12 +20278,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -20393,10 +20402,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -20453,8 +20462,8 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="276"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119"/>
       <c r="G32" s="120"/>
       <c r="H32" s="74"/>
@@ -20725,11 +20734,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="60"/>
-      <c r="B48" s="284" t="s">
+      <c r="B48" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="284"/>
-      <c r="D48" s="284"/>
+      <c r="C48" s="293"/>
+      <c r="D48" s="293"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -20746,12 +20755,12 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="272" t="s">
+      <c r="B49" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="273"/>
-      <c r="D49" s="273"/>
-      <c r="E49" s="274"/>
+      <c r="C49" s="285"/>
+      <c r="D49" s="285"/>
+      <c r="E49" s="286"/>
       <c r="F49" s="133" t="s">
         <v>124</v>
       </c>
@@ -20843,10 +20852,10 @@
       <c r="A52" s="60"/>
       <c r="B52" s="84"/>
       <c r="C52" s="89"/>
-      <c r="D52" s="287" t="s">
+      <c r="D52" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="286"/>
+      <c r="E52" s="295"/>
       <c r="F52" s="72" t="s">
         <v>140</v>
       </c>
@@ -20876,10 +20885,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="119" t="s">
         <v>205</v>
       </c>
@@ -20940,8 +20949,8 @@
       <c r="A55" s="60"/>
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
-      <c r="D55" s="275"/>
-      <c r="E55" s="276"/>
+      <c r="D55" s="282"/>
+      <c r="E55" s="281"/>
       <c r="F55" s="72"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
@@ -21388,6 +21397,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D55:E55"/>
@@ -21397,13 +21413,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:E49"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21503,15 +21512,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -21524,15 +21533,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -21566,15 +21575,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -21608,15 +21617,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -21629,15 +21638,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -21683,19 +21692,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -21724,11 +21733,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -21956,11 +21965,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="79"/>
       <c r="F26" s="80"/>
       <c r="G26" s="79"/>
@@ -21975,12 +21984,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="286"/>
       <c r="F27" s="133" t="s">
         <v>124</v>
       </c>
@@ -22099,10 +22108,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="84"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>190</v>
       </c>
@@ -22159,8 +22168,8 @@
       <c r="A33" s="60"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119"/>
       <c r="G33" s="120"/>
       <c r="H33" s="74"/>
@@ -22431,11 +22440,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="284"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -22452,12 +22461,12 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="286"/>
       <c r="F50" s="133" t="s">
         <v>124</v>
       </c>
@@ -22549,10 +22558,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="72" t="s">
         <v>140</v>
       </c>
@@ -22582,10 +22591,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="119" t="s">
         <v>205</v>
       </c>
@@ -22646,8 +22655,8 @@
       <c r="A56" s="60"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="72"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -23094,6 +23103,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D56:E56"/>
@@ -23103,13 +23119,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -23209,15 +23218,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -23230,15 +23239,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -23272,15 +23281,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -23314,15 +23323,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -23335,15 +23344,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -23389,19 +23398,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -23430,11 +23439,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -23722,11 +23731,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="60"/>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="79"/>
       <c r="F28" s="80"/>
       <c r="G28" s="79"/>
@@ -23741,12 +23750,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="60"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="286"/>
       <c r="F29" s="133" t="s">
         <v>124</v>
       </c>
@@ -23865,10 +23874,10 @@
       <c r="A33" s="60"/>
       <c r="B33" s="84"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287" t="s">
+      <c r="D33" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="276"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119" t="s">
         <v>190</v>
       </c>
@@ -23925,8 +23934,8 @@
       <c r="A35" s="60"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="287"/>
-      <c r="E35" s="276"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="119"/>
       <c r="G35" s="120"/>
       <c r="H35" s="74"/>
@@ -24197,11 +24206,11 @@
     </row>
     <row r="51" spans="1:15" ht="20" customHeight="1">
       <c r="A51" s="60"/>
-      <c r="B51" s="284" t="s">
+      <c r="B51" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="284"/>
-      <c r="D51" s="284"/>
+      <c r="C51" s="293"/>
+      <c r="D51" s="293"/>
       <c r="E51" s="60"/>
       <c r="F51" s="60"/>
       <c r="G51" s="60"/>
@@ -24218,12 +24227,12 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="60"/>
-      <c r="B52" s="272" t="s">
+      <c r="B52" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="273"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="274"/>
+      <c r="C52" s="285"/>
+      <c r="D52" s="285"/>
+      <c r="E52" s="286"/>
       <c r="F52" s="133" t="s">
         <v>124</v>
       </c>
@@ -24315,10 +24324,10 @@
       <c r="A55" s="60"/>
       <c r="B55" s="84"/>
       <c r="C55" s="89"/>
-      <c r="D55" s="287" t="s">
+      <c r="D55" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E55" s="286"/>
+      <c r="E55" s="295"/>
       <c r="F55" s="72" t="s">
         <v>140</v>
       </c>
@@ -24348,10 +24357,10 @@
       <c r="A56" s="60"/>
       <c r="B56" s="84"/>
       <c r="C56" s="89"/>
-      <c r="D56" s="287" t="s">
+      <c r="D56" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="119" t="s">
         <v>205</v>
       </c>
@@ -24412,8 +24421,8 @@
       <c r="A58" s="60"/>
       <c r="B58" s="90"/>
       <c r="C58" s="91"/>
-      <c r="D58" s="275"/>
-      <c r="E58" s="276"/>
+      <c r="D58" s="282"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="72"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
@@ -24860,6 +24869,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D58:E58"/>
@@ -24869,13 +24885,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:E52"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -24892,7 +24901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -24975,15 +24984,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -24996,15 +25005,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -25038,15 +25047,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -25080,15 +25089,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -25101,15 +25110,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -25155,19 +25164,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -25196,11 +25205,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -25424,11 +25433,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="79"/>
       <c r="F26" s="80"/>
       <c r="G26" s="79"/>
@@ -25443,12 +25452,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="286"/>
       <c r="F27" s="133" t="s">
         <v>124</v>
       </c>
@@ -25567,10 +25576,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="84"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>190</v>
       </c>
@@ -25627,8 +25636,8 @@
       <c r="A33" s="60"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119"/>
       <c r="G33" s="120"/>
       <c r="H33" s="74"/>
@@ -25899,11 +25908,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="284"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -25920,12 +25929,12 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="286"/>
       <c r="F50" s="133" t="s">
         <v>124</v>
       </c>
@@ -26017,10 +26026,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="72" t="s">
         <v>140</v>
       </c>
@@ -26050,10 +26059,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="119" t="s">
         <v>205</v>
       </c>
@@ -26114,8 +26123,8 @@
       <c r="A56" s="60"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="72"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -26562,6 +26571,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D56:E56"/>
@@ -26571,13 +26587,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26677,15 +26686,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -26698,15 +26707,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -26740,15 +26749,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -26782,15 +26791,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -26803,15 +26812,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -26857,19 +26866,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -26898,11 +26907,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -27093,11 +27102,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -27112,12 +27121,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -27236,10 +27245,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -27296,8 +27305,8 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="276"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119"/>
       <c r="G32" s="120"/>
       <c r="H32" s="74"/>
@@ -27687,11 +27696,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -27708,12 +27717,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="133" t="s">
         <v>124</v>
       </c>
@@ -27805,10 +27814,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -27838,10 +27847,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -27902,8 +27911,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -28350,6 +28359,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
@@ -28359,13 +28375,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28465,15 +28474,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -28486,15 +28495,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -28528,15 +28537,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -28570,15 +28579,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -28591,15 +28600,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -28645,19 +28654,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -28686,11 +28695,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -28982,11 +28991,11 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="60"/>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="79"/>
       <c r="F28" s="80"/>
       <c r="G28" s="79"/>
@@ -29001,12 +29010,12 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="60"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="286"/>
       <c r="F29" s="133" t="s">
         <v>124</v>
       </c>
@@ -29125,10 +29134,10 @@
       <c r="A33" s="60"/>
       <c r="B33" s="84"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287" t="s">
+      <c r="D33" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="276"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119" t="s">
         <v>190</v>
       </c>
@@ -29185,10 +29194,10 @@
       <c r="A35" s="60"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="287" t="s">
+      <c r="D35" s="279" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="276"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="119" t="s">
         <v>308</v>
       </c>
@@ -29590,11 +29599,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="60"/>
-      <c r="B58" s="284" t="s">
+      <c r="B58" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="284"/>
-      <c r="D58" s="284"/>
+      <c r="C58" s="293"/>
+      <c r="D58" s="293"/>
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -29611,12 +29620,12 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="60"/>
-      <c r="B59" s="272" t="s">
+      <c r="B59" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="273"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="274"/>
+      <c r="C59" s="285"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="286"/>
       <c r="F59" s="133" t="s">
         <v>124</v>
       </c>
@@ -29708,10 +29717,10 @@
       <c r="A62" s="60"/>
       <c r="B62" s="84"/>
       <c r="C62" s="89"/>
-      <c r="D62" s="287" t="s">
+      <c r="D62" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="286"/>
+      <c r="E62" s="295"/>
       <c r="F62" s="72" t="s">
         <v>140</v>
       </c>
@@ -29741,10 +29750,10 @@
       <c r="A63" s="60"/>
       <c r="B63" s="84"/>
       <c r="C63" s="89"/>
-      <c r="D63" s="287" t="s">
+      <c r="D63" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="286"/>
+      <c r="E63" s="295"/>
       <c r="F63" s="119" t="s">
         <v>205</v>
       </c>
@@ -29805,8 +29814,8 @@
       <c r="A65" s="60"/>
       <c r="B65" s="90"/>
       <c r="C65" s="91"/>
-      <c r="D65" s="275"/>
-      <c r="E65" s="276"/>
+      <c r="D65" s="282"/>
+      <c r="E65" s="281"/>
       <c r="F65" s="72"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
@@ -30253,6 +30262,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D65:E65"/>
@@ -30262,13 +30278,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:E59"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -30368,15 +30377,15 @@
       <c r="B4" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -30389,15 +30398,15 @@
       <c r="B5" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -30431,15 +30440,15 @@
       <c r="B7" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -30473,15 +30482,15 @@
       <c r="B9" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -30494,15 +30503,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -30548,19 +30557,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -30589,11 +30598,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -30784,11 +30793,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -30803,12 +30812,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -30927,10 +30936,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -30987,10 +30996,10 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287" t="s">
+      <c r="D32" s="279" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="276"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119" t="s">
         <v>308</v>
       </c>
@@ -31392,11 +31401,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -31413,12 +31422,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="133" t="s">
         <v>124</v>
       </c>
@@ -31510,10 +31519,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -31543,10 +31552,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -31607,8 +31616,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -32055,6 +32064,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
@@ -32064,13 +32080,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -32170,15 +32179,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -32191,15 +32200,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -32233,15 +32242,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -32275,15 +32284,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -32296,15 +32305,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -32350,19 +32359,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -32391,11 +32400,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -32648,11 +32657,11 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
       <c r="E27" s="79"/>
       <c r="F27" s="80"/>
       <c r="G27" s="79"/>
@@ -32667,12 +32676,12 @@
     </row>
     <row r="28" spans="1:15" ht="20" customHeight="1">
       <c r="A28" s="60"/>
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="273"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="286"/>
       <c r="F28" s="133" t="s">
         <v>124</v>
       </c>
@@ -32791,10 +32800,10 @@
       <c r="A32" s="60"/>
       <c r="B32" s="84"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287" t="s">
+      <c r="D32" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="276"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119" t="s">
         <v>190</v>
       </c>
@@ -32851,8 +32860,8 @@
       <c r="A34" s="60"/>
       <c r="B34" s="90"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="276"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="281"/>
       <c r="F34" s="119"/>
       <c r="G34" s="120"/>
       <c r="H34" s="74"/>
@@ -33123,11 +33132,11 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="284" t="s">
+      <c r="B50" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="284"/>
-      <c r="D50" s="284"/>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
       <c r="G50" s="60"/>
@@ -33144,12 +33153,12 @@
     </row>
     <row r="51" spans="1:15" ht="20" customHeight="1">
       <c r="A51" s="60"/>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="273"/>
-      <c r="D51" s="273"/>
-      <c r="E51" s="274"/>
+      <c r="C51" s="285"/>
+      <c r="D51" s="285"/>
+      <c r="E51" s="286"/>
       <c r="F51" s="133" t="s">
         <v>124</v>
       </c>
@@ -33241,10 +33250,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="72" t="s">
         <v>140</v>
       </c>
@@ -33274,10 +33283,10 @@
       <c r="A55" s="60"/>
       <c r="B55" s="84"/>
       <c r="C55" s="89"/>
-      <c r="D55" s="287" t="s">
+      <c r="D55" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="286"/>
+      <c r="E55" s="295"/>
       <c r="F55" s="119" t="s">
         <v>205</v>
       </c>
@@ -33338,8 +33347,8 @@
       <c r="A57" s="60"/>
       <c r="B57" s="90"/>
       <c r="C57" s="91"/>
-      <c r="D57" s="275"/>
-      <c r="E57" s="276"/>
+      <c r="D57" s="282"/>
+      <c r="E57" s="281"/>
       <c r="F57" s="72"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
@@ -33786,6 +33795,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D57:E57"/>
@@ -33795,13 +33811,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:E51"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -34499,15 +34508,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -34520,15 +34529,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -34562,15 +34571,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -34604,15 +34613,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -34621,27 +34630,27 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1">
-      <c r="A10" s="295"/>
-      <c r="B10" s="296" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="215" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="301" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="294"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1">
       <c r="A11" s="60"/>
@@ -34681,19 +34690,19 @@
     </row>
     <row r="13" spans="1:17" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -34722,11 +34731,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -34945,11 +34954,11 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="283"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="79"/>
       <c r="F26" s="80"/>
       <c r="G26" s="79"/>
@@ -34964,12 +34973,12 @@
     </row>
     <row r="27" spans="1:15" ht="20" customHeight="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="286"/>
       <c r="F27" s="133" t="s">
         <v>124</v>
       </c>
@@ -35088,10 +35097,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="84"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>190</v>
       </c>
@@ -35148,8 +35157,8 @@
       <c r="A33" s="60"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="276"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="119"/>
       <c r="G33" s="120"/>
       <c r="H33" s="74"/>
@@ -35420,11 +35429,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="284" t="s">
+      <c r="B49" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="284"/>
-      <c r="D49" s="284"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
       <c r="G49" s="60"/>
@@ -35441,12 +35450,12 @@
     </row>
     <row r="50" spans="1:15" ht="20" customHeight="1">
       <c r="A50" s="60"/>
-      <c r="B50" s="272" t="s">
+      <c r="B50" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="274"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="286"/>
       <c r="F50" s="133" t="s">
         <v>124</v>
       </c>
@@ -35538,10 +35547,10 @@
       <c r="A53" s="60"/>
       <c r="B53" s="84"/>
       <c r="C53" s="89"/>
-      <c r="D53" s="287" t="s">
+      <c r="D53" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="286"/>
+      <c r="E53" s="295"/>
       <c r="F53" s="72" t="s">
         <v>140</v>
       </c>
@@ -35571,10 +35580,10 @@
       <c r="A54" s="60"/>
       <c r="B54" s="84"/>
       <c r="C54" s="89"/>
-      <c r="D54" s="287" t="s">
+      <c r="D54" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="286"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="119" t="s">
         <v>205</v>
       </c>
@@ -35635,8 +35644,8 @@
       <c r="A56" s="60"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="276"/>
+      <c r="D56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="72"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
@@ -36083,6 +36092,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D56:E56"/>
@@ -36092,13 +36108,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36198,15 +36207,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -36219,15 +36228,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -36261,15 +36270,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -36303,15 +36312,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -36320,27 +36329,27 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1">
-      <c r="A10" s="295"/>
-      <c r="B10" s="296" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="215" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="301" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="294"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1">
       <c r="A11" s="60"/>
@@ -36380,19 +36389,19 @@
     </row>
     <row r="13" spans="1:17" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -36421,11 +36430,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -36616,11 +36625,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -36635,12 +36644,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -36759,10 +36768,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -36819,8 +36828,8 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="276"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119"/>
       <c r="G32" s="120"/>
       <c r="H32" s="74"/>
@@ -37210,11 +37219,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -37231,12 +37240,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="133" t="s">
         <v>124</v>
       </c>
@@ -37328,10 +37337,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -37361,10 +37370,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -37425,8 +37434,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -37873,6 +37882,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
@@ -37882,13 +37898,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -37988,15 +37997,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>501</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -38009,15 +38018,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -38051,15 +38060,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -38093,15 +38102,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -38110,27 +38119,27 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1">
-      <c r="A10" s="295"/>
-      <c r="B10" s="296" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="215" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="301" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="294"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1">
       <c r="A11" s="60"/>
@@ -38170,19 +38179,19 @@
     </row>
     <row r="13" spans="1:17" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -38211,11 +38220,11 @@
       <c r="I14" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -38406,11 +38415,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -38425,12 +38434,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -38549,10 +38558,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -38609,10 +38618,10 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287" t="s">
+      <c r="D32" s="279" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="276"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119" t="s">
         <v>347</v>
       </c>
@@ -39010,11 +39019,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -39031,12 +39040,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="133" t="s">
         <v>124</v>
       </c>
@@ -39128,10 +39137,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -39161,10 +39170,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -39225,8 +39234,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -39673,6 +39682,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
@@ -39682,13 +39698,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -39788,15 +39797,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -39809,15 +39818,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -39851,15 +39860,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -39893,15 +39902,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -39910,27 +39919,27 @@
       <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1">
-      <c r="A10" s="295"/>
-      <c r="B10" s="296" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="215" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="298" t="s">
+      <c r="C10" s="301" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="294"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="303"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1">
       <c r="A11" s="60"/>
@@ -39970,19 +39979,19 @@
     </row>
     <row r="13" spans="1:17" ht="20" customHeight="1">
       <c r="A13" s="172"/>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="299"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -40011,11 +40020,11 @@
       <c r="I14" s="211" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="289" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="289"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -40206,11 +40215,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -40225,12 +40234,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="209" t="s">
         <v>124</v>
       </c>
@@ -40349,10 +40358,10 @@
       <c r="A30" s="60"/>
       <c r="B30" s="84"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="279" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="276"/>
+      <c r="E30" s="281"/>
       <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
@@ -40409,10 +40418,10 @@
       <c r="A32" s="60"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="287" t="s">
+      <c r="D32" s="279" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="276"/>
+      <c r="E32" s="281"/>
       <c r="F32" s="119" t="s">
         <v>347</v>
       </c>
@@ -40810,11 +40819,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -40831,12 +40840,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="209" t="s">
         <v>124</v>
       </c>
@@ -40928,10 +40937,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -40961,10 +40970,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -41025,8 +41034,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -41473,6 +41482,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
@@ -41483,12 +41498,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -41938,10 +41947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -41995,10 +42004,10 @@
       <c r="C4" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="257"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="114" t="s">
         <v>202</v>
       </c>
@@ -42016,8 +42025,8 @@
       <c r="C5" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
       <c r="F5" s="118"/>
       <c r="G5" s="101"/>
       <c r="H5" s="101"/>
@@ -42029,8 +42038,8 @@
       <c r="C6" s="117" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
       <c r="F6" s="129"/>
       <c r="G6" s="101"/>
       <c r="H6" s="101"/>
@@ -42042,8 +42051,8 @@
       <c r="C7" s="117" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
       <c r="F7" s="129"/>
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
@@ -42055,8 +42064,8 @@
       <c r="C8" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
       <c r="F8" s="129"/>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
@@ -42068,8 +42077,8 @@
       <c r="C9" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
       <c r="F9" s="129"/>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
@@ -42127,10 +42136,10 @@
       <c r="C14" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="257" t="s">
+      <c r="D14" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="257"/>
+      <c r="E14" s="262"/>
       <c r="F14" s="114" t="s">
         <v>202</v>
       </c>
@@ -42148,10 +42157,10 @@
       <c r="C15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="258" t="s">
+      <c r="D15" s="263" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="258"/>
+      <c r="E15" s="263"/>
       <c r="F15" s="113" t="s">
         <v>256</v>
       </c>
@@ -42163,8 +42172,8 @@
       <c r="C16" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="258"/>
-      <c r="E16" s="258"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
       <c r="F16" s="113"/>
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
@@ -42176,8 +42185,8 @@
       <c r="C17" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
       <c r="F17" s="113"/>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
@@ -42189,8 +42198,8 @@
       <c r="C18" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
       <c r="F18" s="113"/>
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
@@ -42202,8 +42211,8 @@
       <c r="C19" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="258"/>
-      <c r="E19" s="258"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
       <c r="F19" s="113"/>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
@@ -42215,8 +42224,8 @@
       <c r="C20" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="258"/>
-      <c r="E20" s="258"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
       <c r="F20" s="113"/>
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
@@ -42240,10 +42249,10 @@
       <c r="C23" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="257" t="s">
+      <c r="D23" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="257"/>
+      <c r="E23" s="262"/>
       <c r="F23" s="114" t="s">
         <v>202</v>
       </c>
@@ -42255,10 +42264,10 @@
       <c r="C24" s="103" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="259" t="s">
+      <c r="D24" s="261" t="s">
         <v>442</v>
       </c>
-      <c r="E24" s="259"/>
+      <c r="E24" s="261"/>
       <c r="F24" s="202"/>
     </row>
     <row r="25" spans="2:8">
@@ -42268,10 +42277,10 @@
       <c r="C25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="259" t="s">
+      <c r="D25" s="261" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="259"/>
+      <c r="E25" s="261"/>
       <c r="F25" s="129" t="s">
         <v>348</v>
       </c>
@@ -42283,10 +42292,10 @@
       <c r="C26" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="D26" s="260" t="s">
+      <c r="D26" s="268" t="s">
         <v>460</v>
       </c>
-      <c r="E26" s="261"/>
+      <c r="E26" s="269"/>
       <c r="F26" s="115"/>
       <c r="G26" s="101"/>
       <c r="H26" s="101"/>
@@ -42298,10 +42307,10 @@
       <c r="C27" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="258" t="s">
+      <c r="D27" s="263" t="s">
         <v>468</v>
       </c>
-      <c r="E27" s="258"/>
+      <c r="E27" s="263"/>
       <c r="F27" s="115"/>
       <c r="G27" s="101"/>
       <c r="H27" s="101"/>
@@ -42313,8 +42322,8 @@
       <c r="C28" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
+      <c r="D28" s="263"/>
+      <c r="E28" s="263"/>
       <c r="F28" s="115"/>
       <c r="G28" s="101"/>
       <c r="H28" s="101"/>
@@ -42326,8 +42335,8 @@
       <c r="C29" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="258"/>
-      <c r="E29" s="258"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
       <c r="F29" s="115"/>
       <c r="G29" s="101"/>
       <c r="H29" s="101"/>
@@ -42339,8 +42348,8 @@
       <c r="C30" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="258"/>
-      <c r="E30" s="258"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
       <c r="F30" s="115"/>
       <c r="G30" s="101"/>
       <c r="H30" s="101"/>
@@ -42364,10 +42373,10 @@
       <c r="C33" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="257" t="s">
+      <c r="D33" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="257"/>
+      <c r="E33" s="262"/>
       <c r="F33" s="114" t="s">
         <v>202</v>
       </c>
@@ -42379,10 +42388,10 @@
       <c r="C34" s="117" t="s">
         <v>441</v>
       </c>
-      <c r="D34" s="259" t="s">
+      <c r="D34" s="261" t="s">
         <v>442</v>
       </c>
-      <c r="E34" s="259"/>
+      <c r="E34" s="261"/>
       <c r="F34" s="202"/>
     </row>
     <row r="35" spans="2:8">
@@ -42392,10 +42401,10 @@
       <c r="C35" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="259" t="s">
+      <c r="D35" s="261" t="s">
         <v>431</v>
       </c>
-      <c r="E35" s="259"/>
+      <c r="E35" s="261"/>
       <c r="F35" s="129" t="s">
         <v>229</v>
       </c>
@@ -42407,10 +42416,10 @@
       <c r="C36" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="259" t="s">
+      <c r="D36" s="261" t="s">
         <v>430</v>
       </c>
-      <c r="E36" s="259"/>
+      <c r="E36" s="261"/>
       <c r="F36" s="129" t="s">
         <v>234</v>
       </c>
@@ -42424,10 +42433,10 @@
       <c r="C37" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="259" t="s">
+      <c r="D37" s="261" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="259"/>
+      <c r="E37" s="261"/>
       <c r="F37" s="129" t="s">
         <v>235</v>
       </c>
@@ -42441,10 +42450,10 @@
       <c r="C38" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="262" t="s">
+      <c r="D38" s="264" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="263"/>
+      <c r="E38" s="265"/>
       <c r="F38" s="129" t="s">
         <v>236</v>
       </c>
@@ -42458,10 +42467,10 @@
       <c r="C39" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="262" t="s">
+      <c r="D39" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="E39" s="263"/>
+      <c r="E39" s="265"/>
       <c r="F39" s="129" t="s">
         <v>237</v>
       </c>
@@ -42475,10 +42484,10 @@
       <c r="C40" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="262" t="s">
+      <c r="D40" s="264" t="s">
         <v>381</v>
       </c>
-      <c r="E40" s="263"/>
+      <c r="E40" s="265"/>
       <c r="F40" s="129" t="s">
         <v>382</v>
       </c>
@@ -42492,10 +42501,10 @@
       <c r="C41" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="262" t="s">
+      <c r="D41" s="264" t="s">
         <v>383</v>
       </c>
-      <c r="E41" s="263"/>
+      <c r="E41" s="265"/>
       <c r="F41" s="129" t="s">
         <v>384</v>
       </c>
@@ -42509,10 +42518,10 @@
       <c r="C42" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="262" t="s">
+      <c r="D42" s="264" t="s">
         <v>386</v>
       </c>
-      <c r="E42" s="263"/>
+      <c r="E42" s="265"/>
       <c r="F42" s="197" t="s">
         <v>424</v>
       </c>
@@ -42526,10 +42535,10 @@
       <c r="C43" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="262" t="s">
+      <c r="D43" s="264" t="s">
         <v>427</v>
       </c>
-      <c r="E43" s="263"/>
+      <c r="E43" s="265"/>
       <c r="F43" s="197" t="s">
         <v>384</v>
       </c>
@@ -42543,10 +42552,10 @@
       <c r="C44" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="262" t="s">
+      <c r="D44" s="264" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="263"/>
+      <c r="E44" s="265"/>
       <c r="F44" s="197" t="s">
         <v>424</v>
       </c>
@@ -42560,10 +42569,10 @@
       <c r="C45" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="D45" s="262" t="s">
+      <c r="D45" s="264" t="s">
         <v>432</v>
       </c>
-      <c r="E45" s="263"/>
+      <c r="E45" s="265"/>
       <c r="F45" s="198" t="s">
         <v>229</v>
       </c>
@@ -42577,10 +42586,10 @@
       <c r="C46" s="103" t="s">
         <v>429</v>
       </c>
-      <c r="D46" s="262" t="s">
+      <c r="D46" s="264" t="s">
         <v>433</v>
       </c>
-      <c r="E46" s="263"/>
+      <c r="E46" s="265"/>
       <c r="F46" s="198" t="s">
         <v>229</v>
       </c>
@@ -42594,10 +42603,10 @@
       <c r="C47" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="D47" s="265" t="s">
+      <c r="D47" s="267" t="s">
         <v>435</v>
       </c>
-      <c r="E47" s="265"/>
+      <c r="E47" s="267"/>
       <c r="F47" s="198" t="s">
         <v>436</v>
       </c>
@@ -42611,10 +42620,10 @@
       <c r="C48" s="103" t="s">
         <v>458</v>
       </c>
-      <c r="D48" s="262" t="s">
+      <c r="D48" s="264" t="s">
         <v>480</v>
       </c>
-      <c r="E48" s="263"/>
+      <c r="E48" s="265"/>
       <c r="F48" s="203" t="s">
         <v>459</v>
       </c>
@@ -42628,10 +42637,10 @@
       <c r="C49" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="D49" s="259" t="s">
+      <c r="D49" s="261" t="s">
         <v>463</v>
       </c>
-      <c r="E49" s="259"/>
+      <c r="E49" s="261"/>
       <c r="F49" s="203" t="s">
         <v>464</v>
       </c>
@@ -42645,10 +42654,10 @@
       <c r="C50" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="D50" s="259" t="s">
+      <c r="D50" s="261" t="s">
         <v>466</v>
       </c>
-      <c r="E50" s="259"/>
+      <c r="E50" s="261"/>
       <c r="F50" s="205" t="s">
         <v>467</v>
       </c>
@@ -42659,15 +42668,15 @@
       <c r="A51" s="201"/>
       <c r="B51" s="201"/>
       <c r="C51" s="201"/>
-      <c r="D51" s="264"/>
-      <c r="E51" s="264"/>
+      <c r="D51" s="266"/>
+      <c r="E51" s="266"/>
       <c r="F51" s="201"/>
       <c r="G51" s="101"/>
       <c r="H51" s="101"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="D52" s="264"/>
-      <c r="E52" s="264"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="266"/>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="99" t="s">
@@ -42682,10 +42691,10 @@
       <c r="C54" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E54" s="257"/>
+      <c r="E54" s="262"/>
       <c r="F54" s="123" t="s">
         <v>202</v>
       </c>
@@ -42697,10 +42706,10 @@
       <c r="C55" s="103" t="s">
         <v>445</v>
       </c>
-      <c r="D55" s="259" t="s">
+      <c r="D55" s="261" t="s">
         <v>442</v>
       </c>
-      <c r="E55" s="259"/>
+      <c r="E55" s="261"/>
       <c r="F55" s="202"/>
     </row>
     <row r="56" spans="1:8">
@@ -42710,10 +42719,10 @@
       <c r="C56" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="D56" s="259" t="s">
+      <c r="D56" s="261" t="s">
         <v>387</v>
       </c>
-      <c r="E56" s="259"/>
+      <c r="E56" s="261"/>
       <c r="F56" s="129" t="s">
         <v>349</v>
       </c>
@@ -42725,10 +42734,10 @@
       <c r="C57" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="261" t="s">
         <v>449</v>
       </c>
-      <c r="E57" s="259"/>
+      <c r="E57" s="261"/>
       <c r="F57" s="129" t="s">
         <v>241</v>
       </c>
@@ -42740,10 +42749,10 @@
       <c r="C58" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="259" t="s">
+      <c r="D58" s="261" t="s">
         <v>448</v>
       </c>
-      <c r="E58" s="259"/>
+      <c r="E58" s="261"/>
       <c r="F58" s="129" t="s">
         <v>242</v>
       </c>
@@ -42755,10 +42764,10 @@
       <c r="C59" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="262" t="s">
+      <c r="D59" s="264" t="s">
         <v>450</v>
       </c>
-      <c r="E59" s="263"/>
+      <c r="E59" s="265"/>
       <c r="F59" s="198" t="s">
         <v>241</v>
       </c>
@@ -42770,10 +42779,10 @@
       <c r="C60" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="262" t="s">
+      <c r="D60" s="264" t="s">
         <v>451</v>
       </c>
-      <c r="E60" s="263"/>
+      <c r="E60" s="265"/>
       <c r="F60" s="198" t="s">
         <v>242</v>
       </c>
@@ -42785,10 +42794,10 @@
       <c r="C61" s="103" t="s">
         <v>446</v>
       </c>
-      <c r="D61" s="259" t="s">
+      <c r="D61" s="261" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="259"/>
+      <c r="E61" s="261"/>
       <c r="F61" s="129" t="s">
         <v>244</v>
       </c>
@@ -42800,10 +42809,10 @@
       <c r="C62" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="D62" s="259" t="s">
+      <c r="D62" s="261" t="s">
         <v>472</v>
       </c>
-      <c r="E62" s="259"/>
+      <c r="E62" s="261"/>
       <c r="F62" s="129" t="s">
         <v>389</v>
       </c>
@@ -42815,10 +42824,10 @@
       <c r="C63" s="103" t="s">
         <v>471</v>
       </c>
-      <c r="D63" s="259" t="s">
+      <c r="D63" s="261" t="s">
         <v>473</v>
       </c>
-      <c r="E63" s="259"/>
+      <c r="E63" s="261"/>
       <c r="F63" s="205" t="s">
         <v>389</v>
       </c>
@@ -42830,400 +42839,353 @@
       <c r="C64" s="103" t="s">
         <v>475</v>
       </c>
-      <c r="D64" s="259" t="s">
+      <c r="D64" s="261" t="s">
         <v>476</v>
       </c>
-      <c r="E64" s="259"/>
+      <c r="E64" s="261"/>
       <c r="F64" s="205" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="99" t="s">
+    <row r="65" spans="2:6">
+      <c r="B65" s="102">
+        <v>11</v>
+      </c>
+      <c r="C65" s="103" t="s">
+        <v>505</v>
+      </c>
+      <c r="D65" s="261" t="s">
+        <v>506</v>
+      </c>
+      <c r="E65" s="261"/>
+      <c r="F65" s="212" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="98"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="100"/>
-      <c r="C68" s="114" t="s">
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="98"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="100"/>
+      <c r="C69" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="257" t="s">
+      <c r="D69" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="257"/>
-      <c r="F68" s="114" t="s">
+      <c r="E69" s="262"/>
+      <c r="F69" s="114" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="102">
-        <v>1</v>
-      </c>
-      <c r="C69" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="D69" s="259" t="s">
-        <v>442</v>
-      </c>
-      <c r="E69" s="259"/>
-      <c r="F69" s="202"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="102">
+        <v>1</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="261" t="s">
+        <v>442</v>
+      </c>
+      <c r="E70" s="261"/>
+      <c r="F70" s="202"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="102">
         <v>2</v>
       </c>
-      <c r="C70" s="103" t="s">
+      <c r="C71" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="259" t="s">
+      <c r="D71" s="261" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="259"/>
-      <c r="F70" s="129" t="s">
+      <c r="E71" s="261"/>
+      <c r="F71" s="129" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="20" customHeight="1">
-      <c r="B71" s="102">
-        <v>3</v>
-      </c>
-      <c r="C71" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="259" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71" s="259"/>
-      <c r="F71" s="129" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20" customHeight="1">
       <c r="B72" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="259" t="s">
-        <v>329</v>
-      </c>
-      <c r="E72" s="259"/>
+        <v>95</v>
+      </c>
+      <c r="D72" s="261" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" s="261"/>
       <c r="F72" s="129" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="20" customHeight="1">
       <c r="B73" s="102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="259" t="s">
-        <v>338</v>
-      </c>
-      <c r="E73" s="259"/>
+        <v>96</v>
+      </c>
+      <c r="D73" s="261" t="s">
+        <v>329</v>
+      </c>
+      <c r="E73" s="261"/>
       <c r="F73" s="129" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="20" customHeight="1">
       <c r="B74" s="102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="259" t="s">
-        <v>392</v>
-      </c>
-      <c r="E74" s="259"/>
+        <v>97</v>
+      </c>
+      <c r="D74" s="261" t="s">
+        <v>338</v>
+      </c>
+      <c r="E74" s="261"/>
       <c r="F74" s="129" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="20" customHeight="1">
       <c r="B75" s="102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="259"/>
-      <c r="E75" s="259"/>
-      <c r="F75" s="129"/>
+        <v>98</v>
+      </c>
+      <c r="D75" s="261" t="s">
+        <v>392</v>
+      </c>
+      <c r="E75" s="261"/>
+      <c r="F75" s="129" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="76" spans="2:6" ht="20" customHeight="1">
       <c r="B76" s="102">
+        <v>7</v>
+      </c>
+      <c r="C76" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="261"/>
+      <c r="E76" s="261"/>
+      <c r="F76" s="129"/>
+    </row>
+    <row r="77" spans="2:6" ht="20" customHeight="1">
+      <c r="B77" s="102">
         <v>8</v>
       </c>
-      <c r="C76" s="103" t="s">
+      <c r="C77" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
-      <c r="F76" s="129"/>
-    </row>
-    <row r="77" spans="2:6" ht="20" customHeight="1"/>
-    <row r="81" spans="2:6">
-      <c r="B81" s="99" t="s">
+      <c r="D77" s="261"/>
+      <c r="E77" s="261"/>
+      <c r="F77" s="129"/>
+    </row>
+    <row r="78" spans="2:6" ht="20" customHeight="1"/>
+    <row r="82" spans="2:6">
+      <c r="B82" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="98"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="100"/>
-      <c r="C82" s="128" t="s">
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="98"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="100"/>
+      <c r="C83" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="D82" s="257" t="s">
+      <c r="D83" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="E82" s="257"/>
-      <c r="F82" s="128" t="s">
+      <c r="E83" s="262"/>
+      <c r="F83" s="128" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="102">
-        <v>1</v>
-      </c>
-      <c r="C83" s="103" t="s">
-        <v>377</v>
-      </c>
-      <c r="D83" s="259" t="s">
-        <v>359</v>
-      </c>
-      <c r="E83" s="259"/>
-      <c r="F83" s="129"/>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="D84" s="259" t="s">
-        <v>360</v>
-      </c>
-      <c r="E84" s="259"/>
+        <v>377</v>
+      </c>
+      <c r="D84" s="261" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="261"/>
       <c r="F84" s="129"/>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="D85" s="259" t="s">
-        <v>361</v>
-      </c>
-      <c r="E85" s="259"/>
+        <v>352</v>
+      </c>
+      <c r="D85" s="261" t="s">
+        <v>360</v>
+      </c>
+      <c r="E85" s="261"/>
       <c r="F85" s="129"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="D86" s="259" t="s">
-        <v>362</v>
-      </c>
-      <c r="E86" s="259"/>
+        <v>353</v>
+      </c>
+      <c r="D86" s="261" t="s">
+        <v>361</v>
+      </c>
+      <c r="E86" s="261"/>
       <c r="F86" s="129"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="D87" s="259" t="s">
-        <v>363</v>
-      </c>
-      <c r="E87" s="259"/>
-      <c r="F87" s="115"/>
+        <v>354</v>
+      </c>
+      <c r="D87" s="261" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" s="261"/>
+      <c r="F87" s="129"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="D88" s="259" t="s">
-        <v>364</v>
-      </c>
-      <c r="E88" s="259"/>
+        <v>355</v>
+      </c>
+      <c r="D88" s="261" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="261"/>
       <c r="F88" s="115"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="259" t="s">
-        <v>365</v>
-      </c>
-      <c r="E89" s="259"/>
+        <v>356</v>
+      </c>
+      <c r="D89" s="261" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="261"/>
       <c r="F89" s="115"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="D90" s="259" t="s">
-        <v>371</v>
-      </c>
-      <c r="E90" s="259"/>
+        <v>357</v>
+      </c>
+      <c r="D90" s="261" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" s="261"/>
       <c r="F90" s="115"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="259" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="259"/>
+        <v>358</v>
+      </c>
+      <c r="D91" s="261" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="261"/>
       <c r="F91" s="115"/>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="102">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="D92" s="259" t="s">
-        <v>373</v>
-      </c>
-      <c r="E92" s="259"/>
+        <v>370</v>
+      </c>
+      <c r="D92" s="261" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="261"/>
       <c r="F92" s="115"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="259" t="s">
-        <v>374</v>
-      </c>
-      <c r="E93" s="259"/>
+        <v>369</v>
+      </c>
+      <c r="D93" s="261" t="s">
+        <v>373</v>
+      </c>
+      <c r="E93" s="261"/>
       <c r="F93" s="115"/>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="102">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="D94" s="259" t="s">
-        <v>375</v>
-      </c>
-      <c r="E94" s="259"/>
+        <v>368</v>
+      </c>
+      <c r="D94" s="261" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" s="261"/>
       <c r="F94" s="115"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="102">
+        <v>12</v>
+      </c>
+      <c r="C95" s="103" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="261" t="s">
+        <v>375</v>
+      </c>
+      <c r="E95" s="261"/>
+      <c r="F95" s="115"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="102">
         <v>13</v>
       </c>
-      <c r="C95" s="103" t="s">
+      <c r="C96" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="D95" s="259" t="s">
+      <c r="D96" s="261" t="s">
         <v>376</v>
       </c>
-      <c r="E95" s="259"/>
-      <c r="F95" s="115"/>
+      <c r="E96" s="261"/>
+      <c r="F96" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
+  <mergeCells count="76">
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D34:E34"/>
@@ -43237,6 +43199,69 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43317,10 +43342,10 @@
       <c r="D4" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="266" t="s">
+      <c r="E4" s="270" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="267"/>
+      <c r="F4" s="271"/>
       <c r="G4" s="95" t="s">
         <v>158</v>
       </c>
@@ -43335,7 +43360,7 @@
       <c r="C5" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="300" t="s">
+      <c r="D5" s="276" t="s">
         <v>155</v>
       </c>
       <c r="E5" s="148" t="s">
@@ -43360,7 +43385,7 @@
       <c r="C6" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="301"/>
+      <c r="D6" s="277"/>
       <c r="E6" s="148" t="s">
         <v>314</v>
       </c>
@@ -43383,7 +43408,7 @@
       <c r="C7" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="301"/>
+      <c r="D7" s="277"/>
       <c r="E7" s="148" t="s">
         <v>247</v>
       </c>
@@ -43406,7 +43431,7 @@
       <c r="C8" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="301"/>
+      <c r="D8" s="277"/>
       <c r="E8" s="148" t="s">
         <v>247</v>
       </c>
@@ -43429,7 +43454,7 @@
       <c r="C9" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="301"/>
+      <c r="D9" s="277"/>
       <c r="E9" s="148" t="s">
         <v>157</v>
       </c>
@@ -43454,7 +43479,7 @@
       <c r="C10" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="D10" s="301"/>
+      <c r="D10" s="277"/>
       <c r="E10" s="148" t="s">
         <v>314</v>
       </c>
@@ -43477,7 +43502,7 @@
       <c r="C11" s="151" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="278"/>
       <c r="E11" s="148" t="s">
         <v>314</v>
       </c>
@@ -43500,7 +43525,7 @@
       <c r="C12" s="153" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="268" t="s">
+      <c r="D12" s="272" t="s">
         <v>405</v>
       </c>
       <c r="E12" s="154" t="s">
@@ -43525,7 +43550,7 @@
       <c r="C13" s="153" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="269"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="154" t="s">
         <v>314</v>
       </c>
@@ -43550,7 +43575,7 @@
       <c r="C14" s="153" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="269"/>
+      <c r="D14" s="273"/>
       <c r="E14" s="154" t="s">
         <v>247</v>
       </c>
@@ -43573,7 +43598,7 @@
       <c r="C15" s="153" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="269"/>
+      <c r="D15" s="273"/>
       <c r="E15" s="154" t="s">
         <v>315</v>
       </c>
@@ -43596,7 +43621,7 @@
       <c r="C16" s="153" t="s">
         <v>479</v>
       </c>
-      <c r="D16" s="269"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="154" t="s">
         <v>314</v>
       </c>
@@ -43619,7 +43644,7 @@
       <c r="C17" s="153" t="s">
         <v>484</v>
       </c>
-      <c r="D17" s="269"/>
+      <c r="D17" s="273"/>
       <c r="E17" s="154" t="s">
         <v>247</v>
       </c>
@@ -43642,7 +43667,7 @@
       <c r="C18" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="270" t="s">
+      <c r="D18" s="274" t="s">
         <v>156</v>
       </c>
       <c r="E18" s="158" t="s">
@@ -43667,7 +43692,7 @@
       <c r="C19" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="271"/>
+      <c r="D19" s="275"/>
       <c r="E19" s="158" t="s">
         <v>314</v>
       </c>
@@ -43690,7 +43715,7 @@
       <c r="C20" s="157" t="s">
         <v>485</v>
       </c>
-      <c r="D20" s="271"/>
+      <c r="D20" s="275"/>
       <c r="E20" s="158" t="s">
         <v>247</v>
       </c>
@@ -43713,7 +43738,7 @@
       <c r="C21" s="157" t="s">
         <v>340</v>
       </c>
-      <c r="D21" s="271"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="158" t="s">
         <v>315</v>
       </c>
@@ -43736,7 +43761,7 @@
       <c r="C22" s="157" t="s">
         <v>486</v>
       </c>
-      <c r="D22" s="271"/>
+      <c r="D22" s="275"/>
       <c r="E22" s="158" t="s">
         <v>247</v>
       </c>
@@ -43929,15 +43954,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -43950,15 +43975,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -43992,15 +44017,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="275" t="s">
+      <c r="C7" s="282" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -44034,15 +44059,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="275" t="s">
+      <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -44105,19 +44130,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="60"/>
-      <c r="B13" s="277" t="s">
+      <c r="B13" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="278"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="278"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="279"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="289"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -44146,11 +44171,11 @@
       <c r="I14" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="288" t="s">
+      <c r="J14" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -44179,11 +44204,11 @@
       <c r="I15" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="280" t="s">
+      <c r="J15" s="290" t="s">
         <v>214</v>
       </c>
-      <c r="K15" s="281"/>
-      <c r="L15" s="281"/>
+      <c r="K15" s="291"/>
+      <c r="L15" s="291"/>
       <c r="M15" s="60"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -44212,11 +44237,11 @@
       <c r="I16" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="J16" s="281" t="s">
+      <c r="J16" s="291" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="281"/>
-      <c r="L16" s="281"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -44278,11 +44303,11 @@
       <c r="I18" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="275" t="s">
+      <c r="J18" s="282" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="282"/>
-      <c r="L18" s="276"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="281"/>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -44311,11 +44336,11 @@
       <c r="I19" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="275" t="s">
+      <c r="J19" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="K19" s="282"/>
-      <c r="L19" s="276"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="281"/>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -44477,11 +44502,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="60"/>
-      <c r="B29" s="283" t="s">
+      <c r="B29" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="283"/>
-      <c r="D29" s="283"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="79"/>
       <c r="F29" s="80"/>
       <c r="G29" s="79"/>
@@ -44496,12 +44521,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="60"/>
-      <c r="B30" s="272" t="s">
+      <c r="B30" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="286"/>
       <c r="F30" s="70" t="s">
         <v>124</v>
       </c>
@@ -44593,10 +44618,10 @@
       <c r="A33" s="60"/>
       <c r="B33" s="84"/>
       <c r="C33" s="89"/>
-      <c r="D33" s="275" t="s">
+      <c r="D33" s="282" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="276"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="72" t="s">
         <v>140</v>
       </c>
@@ -44626,10 +44651,10 @@
       <c r="A34" s="60"/>
       <c r="B34" s="84"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="275" t="s">
+      <c r="D34" s="282" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="276"/>
+      <c r="E34" s="281"/>
       <c r="F34" s="72" t="s">
         <v>190</v>
       </c>
@@ -44692,8 +44717,8 @@
       <c r="A36" s="60"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="276"/>
+      <c r="D36" s="282"/>
+      <c r="E36" s="281"/>
       <c r="F36" s="72"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
@@ -45015,11 +45040,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -45036,12 +45061,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="70" t="s">
         <v>124</v>
       </c>
@@ -45133,10 +45158,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="276"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -45197,10 +45222,10 @@
       <c r="A61" s="60"/>
       <c r="B61" s="84"/>
       <c r="C61" s="89"/>
-      <c r="D61" s="285" t="s">
+      <c r="D61" s="294" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="286"/>
+      <c r="E61" s="295"/>
       <c r="F61" s="119" t="s">
         <v>205</v>
       </c>
@@ -45261,8 +45286,8 @@
       <c r="A63" s="60"/>
       <c r="B63" s="90"/>
       <c r="C63" s="91"/>
-      <c r="D63" s="275"/>
-      <c r="E63" s="276"/>
+      <c r="D63" s="282"/>
+      <c r="E63" s="281"/>
       <c r="F63" s="72"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
@@ -45709,11 +45734,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="B13:L13"/>
@@ -45729,6 +45749,11 @@
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -45832,15 +45857,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -45853,15 +45878,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -45895,15 +45920,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -45937,15 +45962,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="275" t="s">
+      <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -45958,15 +45983,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -46029,19 +46054,19 @@
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1">
       <c r="A14" s="60"/>
-      <c r="B14" s="277" t="s">
+      <c r="B14" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="278"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="278"/>
-      <c r="H14" s="278"/>
-      <c r="I14" s="278"/>
-      <c r="J14" s="278"/>
-      <c r="K14" s="278"/>
-      <c r="L14" s="279"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -46070,11 +46095,11 @@
       <c r="I15" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="288" t="s">
+      <c r="J15" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="283"/>
       <c r="M15" s="60"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -46136,11 +46161,11 @@
       <c r="I17" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="J17" s="275" t="s">
+      <c r="J17" s="282" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="282"/>
-      <c r="L17" s="276"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="281"/>
       <c r="M17" s="60"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -46169,11 +46194,11 @@
       <c r="I18" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="275" t="s">
+      <c r="J18" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="282"/>
-      <c r="L18" s="276"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="281"/>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -46202,11 +46227,11 @@
       <c r="I19" s="141">
         <v>1</v>
       </c>
-      <c r="J19" s="287" t="s">
+      <c r="J19" s="279" t="s">
         <v>223</v>
       </c>
-      <c r="K19" s="282"/>
-      <c r="L19" s="276"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="281"/>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -46368,11 +46393,11 @@
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1">
       <c r="A29" s="60"/>
-      <c r="B29" s="283" t="s">
+      <c r="B29" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="283"/>
-      <c r="D29" s="283"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="79"/>
       <c r="F29" s="80"/>
       <c r="G29" s="79"/>
@@ -46387,12 +46412,12 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="60"/>
-      <c r="B30" s="272" t="s">
+      <c r="B30" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="286"/>
       <c r="F30" s="127" t="s">
         <v>124</v>
       </c>
@@ -46484,10 +46509,10 @@
       <c r="A33" s="60"/>
       <c r="B33" s="84"/>
       <c r="C33" s="89"/>
-      <c r="D33" s="275" t="s">
+      <c r="D33" s="282" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="276"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="72" t="s">
         <v>140</v>
       </c>
@@ -46517,10 +46542,10 @@
       <c r="A34" s="60"/>
       <c r="B34" s="84"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="275" t="s">
+      <c r="D34" s="282" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="276"/>
+      <c r="E34" s="281"/>
       <c r="F34" s="72" t="s">
         <v>190</v>
       </c>
@@ -46583,8 +46608,8 @@
       <c r="A36" s="60"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="276"/>
+      <c r="D36" s="282"/>
+      <c r="E36" s="281"/>
       <c r="F36" s="72"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
@@ -46906,11 +46931,11 @@
     </row>
     <row r="55" spans="1:15" ht="20" customHeight="1">
       <c r="A55" s="60"/>
-      <c r="B55" s="284" t="s">
+      <c r="B55" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="284"/>
-      <c r="D55" s="284"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
@@ -46927,12 +46952,12 @@
     </row>
     <row r="56" spans="1:15" ht="20" customHeight="1">
       <c r="A56" s="60"/>
-      <c r="B56" s="272" t="s">
+      <c r="B56" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="274"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="127" t="s">
         <v>124</v>
       </c>
@@ -47024,10 +47049,10 @@
       <c r="A59" s="60"/>
       <c r="B59" s="84"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="286"/>
+      <c r="E59" s="295"/>
       <c r="F59" s="72" t="s">
         <v>140</v>
       </c>
@@ -47057,10 +47082,10 @@
       <c r="A60" s="60"/>
       <c r="B60" s="84"/>
       <c r="C60" s="89"/>
-      <c r="D60" s="287" t="s">
+      <c r="D60" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="286"/>
+      <c r="E60" s="295"/>
       <c r="F60" s="119" t="s">
         <v>205</v>
       </c>
@@ -47121,8 +47146,8 @@
       <c r="A62" s="60"/>
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
-      <c r="D62" s="275"/>
-      <c r="E62" s="276"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="281"/>
       <c r="F62" s="72"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
@@ -47569,6 +47594,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:E56"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
@@ -47580,15 +47614,6 @@
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="C10:I10"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1"/>
@@ -47691,15 +47716,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>481</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -47712,15 +47737,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -47754,15 +47779,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -47796,15 +47821,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -47817,15 +47842,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -47871,19 +47896,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="60"/>
-      <c r="B13" s="277" t="s">
+      <c r="B13" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="278"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="278"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="279"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="289"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -47912,11 +47937,11 @@
       <c r="I14" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="288" t="s">
+      <c r="J14" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -48107,11 +48132,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -48126,12 +48151,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -48223,8 +48248,8 @@
       <c r="A29" s="60"/>
       <c r="B29" s="84"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="275"/>
-      <c r="E29" s="276"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="281"/>
       <c r="F29" s="72"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
@@ -48273,10 +48298,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>253</v>
       </c>
@@ -48765,11 +48790,11 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="60"/>
-      <c r="B59" s="284" t="s">
+      <c r="B59" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="284"/>
-      <c r="D59" s="284"/>
+      <c r="C59" s="293"/>
+      <c r="D59" s="293"/>
       <c r="E59" s="60"/>
       <c r="F59" s="60"/>
       <c r="G59" s="60"/>
@@ -48786,12 +48811,12 @@
     </row>
     <row r="60" spans="1:15" ht="20" customHeight="1">
       <c r="A60" s="60"/>
-      <c r="B60" s="272" t="s">
+      <c r="B60" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="273"/>
-      <c r="D60" s="273"/>
-      <c r="E60" s="274"/>
+      <c r="C60" s="285"/>
+      <c r="D60" s="285"/>
+      <c r="E60" s="286"/>
       <c r="F60" s="133" t="s">
         <v>124</v>
       </c>
@@ -48883,10 +48908,10 @@
       <c r="A63" s="60"/>
       <c r="B63" s="84"/>
       <c r="C63" s="89"/>
-      <c r="D63" s="287" t="s">
+      <c r="D63" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="286"/>
+      <c r="E63" s="295"/>
       <c r="F63" s="72" t="s">
         <v>140</v>
       </c>
@@ -48916,10 +48941,10 @@
       <c r="A64" s="60"/>
       <c r="B64" s="84"/>
       <c r="C64" s="89"/>
-      <c r="D64" s="287" t="s">
+      <c r="D64" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="286"/>
+      <c r="E64" s="295"/>
       <c r="F64" s="119" t="s">
         <v>205</v>
       </c>
@@ -48980,8 +49005,8 @@
       <c r="A66" s="60"/>
       <c r="B66" s="90"/>
       <c r="C66" s="91"/>
-      <c r="D66" s="275"/>
-      <c r="E66" s="276"/>
+      <c r="D66" s="282"/>
+      <c r="E66" s="281"/>
       <c r="F66" s="72"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
@@ -49428,13 +49453,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C4:I4"/>
@@ -49444,6 +49462,13 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C10:I10"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -49543,15 +49568,15 @@
       <c r="B4" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="276"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="281"/>
       <c r="J4" s="60"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
@@ -49564,15 +49589,15 @@
       <c r="B5" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="279" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="282"/>
-      <c r="I5" s="276"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="281"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
@@ -49606,15 +49631,15 @@
       <c r="B7" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="276"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="281"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
@@ -49648,15 +49673,15 @@
       <c r="B9" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="282"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -49669,15 +49694,15 @@
       <c r="B10" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="287" t="s">
+      <c r="C10" s="279" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="276"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="281"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -49723,19 +49748,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="60"/>
-      <c r="B13" s="277" t="s">
+      <c r="B13" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="278"/>
-      <c r="H13" s="278"/>
-      <c r="I13" s="278"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="279"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="289"/>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
@@ -49764,11 +49789,11 @@
       <c r="I14" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="288" t="s">
+      <c r="J14" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -49959,11 +49984,11 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="60"/>
-      <c r="B25" s="283" t="s">
+      <c r="B25" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="283"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="79"/>
       <c r="F25" s="80"/>
       <c r="G25" s="79"/>
@@ -49978,12 +50003,12 @@
     </row>
     <row r="26" spans="1:15" ht="20" customHeight="1">
       <c r="A26" s="60"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="274"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="286"/>
       <c r="F26" s="133" t="s">
         <v>124</v>
       </c>
@@ -50075,8 +50100,8 @@
       <c r="A29" s="60"/>
       <c r="B29" s="84"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="275"/>
-      <c r="E29" s="276"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="281"/>
       <c r="F29" s="72"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
@@ -50125,10 +50150,10 @@
       <c r="A31" s="60"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="287" t="s">
+      <c r="D31" s="279" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="276"/>
+      <c r="E31" s="281"/>
       <c r="F31" s="119" t="s">
         <v>264</v>
       </c>
@@ -50600,11 +50625,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="60"/>
-      <c r="B58" s="284" t="s">
+      <c r="B58" s="293" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="284"/>
-      <c r="D58" s="284"/>
+      <c r="C58" s="293"/>
+      <c r="D58" s="293"/>
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -50621,12 +50646,12 @@
     </row>
     <row r="59" spans="1:15" ht="20" customHeight="1">
       <c r="A59" s="60"/>
-      <c r="B59" s="272" t="s">
+      <c r="B59" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="273"/>
-      <c r="D59" s="273"/>
-      <c r="E59" s="274"/>
+      <c r="C59" s="285"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="286"/>
       <c r="F59" s="133" t="s">
         <v>124</v>
       </c>
@@ -50718,10 +50743,10 @@
       <c r="A62" s="60"/>
       <c r="B62" s="84"/>
       <c r="C62" s="89"/>
-      <c r="D62" s="287" t="s">
+      <c r="D62" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="286"/>
+      <c r="E62" s="295"/>
       <c r="F62" s="72" t="s">
         <v>140</v>
       </c>
@@ -50751,10 +50776,10 @@
       <c r="A63" s="60"/>
       <c r="B63" s="84"/>
       <c r="C63" s="89"/>
-      <c r="D63" s="287" t="s">
+      <c r="D63" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="286"/>
+      <c r="E63" s="295"/>
       <c r="F63" s="119" t="s">
         <v>205</v>
       </c>
@@ -50815,8 +50840,8 @@
       <c r="A65" s="60"/>
       <c r="B65" s="90"/>
       <c r="C65" s="91"/>
-      <c r="D65" s="275"/>
-      <c r="E65" s="276"/>
+      <c r="D65" s="282"/>
+      <c r="E65" s="281"/>
       <c r="F65" s="72"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
@@ -51263,6 +51288,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
@@ -51272,13 +51304,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
